--- a/●회계/1학기종강엠티.xlsx
+++ b/●회계/1학기종강엠티.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\kyungheeUNIV\●회계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6EADFD-2A99-4123-95B5-D2F57B1EACFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFE43E8-0F2B-4E72-8014-D6B0B1C7DD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17925" yWindow="645" windowWidth="10875" windowHeight="11385" tabRatio="490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -789,6 +789,31 @@
     <xf numFmtId="42" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -800,31 +825,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1299,8 +1299,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1317,18 +1317,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="M1" s="28" t="s">
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="M1" s="37" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1357,13 +1357,13 @@
       <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="29"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1417,13 +1417,15 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="24">
+        <v>100000</v>
+      </c>
       <c r="G4" s="24">
         <v>480000</v>
       </c>
       <c r="H4" s="24">
         <f>F4+G4</f>
-        <v>480000</v>
+        <v>580000</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>39</v>
@@ -1456,13 +1458,13 @@
         <v>7</v>
       </c>
       <c r="F5" s="24">
-        <f>1000*COUNTA(A3:A33)</f>
-        <v>29000</v>
+        <f>30000</f>
+        <v>30000</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="24">
         <f>F5+G5</f>
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>0</v>
@@ -1607,7 +1609,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="22">
         <f>SUM(H3:H8)</f>
-        <v>2203080</v>
+        <v>2304080</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>71</v>
@@ -1657,10 +1659,10 @@
       <c r="D11" s="8">
         <v>50000</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="21" t="s">
         <v>28</v>
       </c>
@@ -1685,10 +1687,10 @@
       <c r="D12" s="8">
         <v>50000</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="14" t="s">
         <v>90</v>
       </c>
@@ -1710,16 +1712,16 @@
       <c r="D13" s="8">
         <v>50000</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="31" t="s">
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1732,10 +1734,10 @@
       <c r="D14" s="8">
         <v>50000</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="16" t="s">
         <v>86</v>
       </c>
@@ -1760,10 +1762,10 @@
       <c r="D15" s="8">
         <v>50000</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1788,10 +1790,10 @@
       <c r="D16" s="8">
         <v>50000</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="2" t="s">
         <v>49</v>
       </c>
@@ -1806,14 +1808,14 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="2" t="s">
         <v>38</v>
       </c>
@@ -1839,10 +1841,10 @@
       <c r="D18" s="8">
         <v>50000</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="2" t="s">
         <v>70</v>
       </c>
@@ -1865,10 +1867,10 @@
       <c r="D19" s="8">
         <v>50000</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="2" t="s">
         <v>56</v>
       </c>
@@ -1891,10 +1893,10 @@
       <c r="D20" s="8">
         <v>50000</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="2" t="s">
         <v>1</v>
       </c>
@@ -1919,10 +1921,10 @@
       <c r="D21" s="8">
         <v>50000</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="2" t="s">
         <v>66</v>
       </c>
@@ -1947,10 +1949,10 @@
       <c r="D22" s="8">
         <v>50000</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="26" t="s">
         <v>90</v>
       </c>
@@ -1972,16 +1974,16 @@
       <c r="D23" s="8">
         <v>50000</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="31" t="s">
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
     </row>
     <row r="24" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -2032,10 +2034,10 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="I26" s="21" t="s">
@@ -2188,21 +2190,22 @@
         <v>93</v>
       </c>
       <c r="B34" s="15">
-        <f>COUNTA(B3:B33)-2</f>
-        <v>27</v>
+        <f>COUNTA(B3:B33)</f>
+        <v>29</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D34" s="14">
-        <v>1600000</v>
-      </c>
-      <c r="I34" s="31" t="s">
+        <f>SUM(D3:D33)</f>
+        <v>1400000</v>
+      </c>
+      <c r="I34" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
     </row>
     <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="I35" s="14" t="s">
@@ -2217,6 +2220,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I34:L34"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="E11:H13"/>
@@ -2224,11 +2232,6 @@
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I34:L34"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
